--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_5956.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_5956.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +426,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>5956</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Finnley Hugh Allen</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Does Not Bowl | Unknown</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +515,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -503,7 +567,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4605</t>
+          <t>4605</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,7 +619,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4608</t>
+          <t>4608</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -607,7 +671,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4614</t>
+          <t>4614</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -659,7 +723,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4625</t>
+          <t>4625</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -711,7 +775,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4636</t>
+          <t>4636</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -763,7 +827,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4639</t>
+          <t>4639</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -815,7 +879,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4642</t>
+          <t>4642</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -867,7 +931,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4649</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -919,7 +983,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4669</t>
+          <t>4669</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -967,7 +1031,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4673</t>
+          <t>4673</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1019,7 +1083,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4676</t>
+          <t>4676</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1071,7 +1135,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4686</t>
+          <t>4686</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1123,7 +1187,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4688</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1175,7 +1239,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4690</t>
+          <t>4690</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1227,7 +1291,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4692</t>
+          <t>4692</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1279,7 +1343,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4695</t>
+          <t>4695</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1331,7 +1395,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4697</t>
+          <t>4697</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1383,7 +1447,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4735</t>
+          <t>4735</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_5956.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_5956.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1023,7 +1024,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>27/11/2022</t>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1478,6 +1478,519 @@
       <c r="J19" t="inlineStr">
         <is>
           <t>49</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.97%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.40%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>9.17%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>16.29%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4636</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>13.16%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4639</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>45.28%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4642</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>14.46%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7.12%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4673</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>54.81%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4686</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4688</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4735</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>18.61%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_5956.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_5956.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1024,6 +1023,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>27/11/2022</t>
@@ -1478,519 +1478,6 @@
       <c r="J19" t="inlineStr">
         <is>
           <t>49</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4605</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1.97%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4608</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>27.40%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4614</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>9.17%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4625</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>16.29%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4636</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>13.16%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4639</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>45.28%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4642</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4649</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>14.46%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4669</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>7.12%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4673</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4676</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>54.81%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4686</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4688</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.38%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4690</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4692</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4695</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4697</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4735</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>18.61%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_5956.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_5956.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1023,7 +1024,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>27/11/2022</t>
@@ -1478,6 +1478,519 @@
       <c r="J19" t="inlineStr">
         <is>
           <t>49</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.97%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.40%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>9.17%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>16.29%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4636</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>13.16%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4639</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>45.28%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4642</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>14.46%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7.12%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4673</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>54.81%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4686</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4688</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4735</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>18.61%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
